--- a/design-list.xlsx
+++ b/design-list.xlsx
@@ -116,7 +116,7 @@
     <t>Game Design and Development</t>
   </si>
   <si>
-    <t>Study a course with a distinctive, practice-based approach to games design &amp;ndash; gaining a diverse skill set and useful experience within the field.</t>
+    <t>Study a course with a distinctive, practice-based approach to games design, gaining a diverse skill set and useful experience within the field.</t>
   </si>
   <si>
     <t>A112</t>
@@ -159,16 +159,9 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -646,142 +639,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1317,15 +1309,15 @@
   <sheetPr/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="21.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="192.444444444444" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="21.1111111111111" customWidth="1"/>
@@ -1375,268 +1367,268 @@
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>112</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>112</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:12">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>112</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:12">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>112</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>112</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="1:12">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>112</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:12">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>112</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
